--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91828\eclipse-workspace\RestAssuredBDD_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1ED73-C409-4332-AF1A-372F0A11C069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899BCEA1-32E4-4143-ACDB-7EC9B50D9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>HTTP/1.1 200 OK</t>
   </si>
   <si>
-    <t>3.6725</t>
+    <t>4.6725</t>
   </si>
 </sst>
 </file>

--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91828\eclipse-workspace\RestAssuredBDD_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899BCEA1-32E4-4143-ACDB-7EC9B50D9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0E081-CC30-42C2-90A5-C257D5CE91EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91828\eclipse-workspace\RestAssuredBDD_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0E081-CC30-42C2-90A5-C257D5CE91EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8FC47-33DD-46F8-AC81-7AF34B7A7659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>HTTP/1.1 200 OK</t>
   </si>
   <si>
-    <t>4.6725</t>
+    <t>3.6725</t>
   </si>
 </sst>
 </file>
